--- a/config/report/A/Report_BE.ID01IntroDialog(Clone)_Hello!Lesson 1_1.xlsx
+++ b/config/report/A/Report_BE.ID01IntroDialog(Clone)_Hello!Lesson 1_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="149">
   <si>
     <t>TCID</t>
   </si>
@@ -414,6 +414,60 @@
   </si>
   <si>
     <t>TC5_2</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[0].word[?(@.type=='question')].text</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[0].word[?(@.type=='question')].audio[*].file_path</t>
+  </si>
+  <si>
+    <t>96c836f8-346a-41f4-b4a3-2029a5ea6d5d.mp3</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[0].word[?(@.type=='answer')].audio[*].file_path</t>
+  </si>
+  <si>
+    <t>c6cb741d-2549-4723-a709-9e67ecf32932.mp3</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[0].word[?(@.type=='answer')].text</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[1].word[?(@.type=='question')].text</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[1].word[?(@.type=='question')].audio[*].file_path</t>
+  </si>
+  <si>
+    <t>0347ccea-473a-413b-b9c0-3183383710c5.mp3</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[1].word[?(@.type=='answer')].audio[*].file_path</t>
+  </si>
+  <si>
+    <t>b4a91962-5736-41dd-afe9-fc0d7a6e7b51.mp3</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[1].word[?(@.type=='answer')].text</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[2].word[?(@.type=='question')].text</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[2].word[?(@.type=='question')].audio[*].file_path</t>
+  </si>
+  <si>
+    <t>e7325249-bed4-4f07-baae-018b0631190e.mp3</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[2].word[?(@.type=='answer')].audio[*].file_path</t>
+  </si>
+  <si>
+    <t>1c9ecc5e-2b38-411e-8839-92ce5a3e10a6.mp3</t>
+  </si>
+  <si>
+    <t>$.act[0].turn[2].word[?(@.type=='answer')].text</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1216,12 @@
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>120</v>
+      </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1215,8 +1273,12 @@
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>120</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1253,8 +1315,12 @@
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>120</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1291,8 +1357,12 @@
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>120</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1329,8 +1399,12 @@
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>120</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>120</v>
@@ -1454,7 +1528,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>120</v>
@@ -1540,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>120</v>
@@ -1626,7 +1700,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>120</v>
@@ -1712,7 +1786,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>120</v>
@@ -1798,7 +1872,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>120</v>
@@ -1884,7 +1958,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>120</v>
@@ -1970,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>120</v>
@@ -2056,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>120</v>
@@ -2142,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>120</v>
@@ -2227,8 +2301,12 @@
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>120</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -2259,7 +2337,9 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="9"/>
+      <c r="D18" t="s" s="0">
+        <v>120</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
@@ -2319,7 +2399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2403,7 +2483,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>120</v>
@@ -2424,7 +2504,7 @@
         <v>120</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>120</v>
@@ -2459,16 +2539,16 @@
         <v>42</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>120</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s" s="0">
         <v>120</v>
@@ -2509,10 +2589,10 @@
         <v>120</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>120</v>
@@ -2535,7 +2615,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>120</v>
@@ -2556,7 +2636,7 @@
         <v>120</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>120</v>
@@ -2597,10 +2677,10 @@
         <v>120</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s" s="0">
         <v>120</v>
@@ -2635,16 +2715,16 @@
         <v>42</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>120</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>120</v>
@@ -2688,7 +2768,7 @@
         <v>120</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>120</v>
@@ -2711,7 +2791,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>120</v>
@@ -2732,7 +2812,7 @@
         <v>120</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>120</v>
@@ -2767,16 +2847,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>120</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>120</v>
@@ -2817,10 +2897,10 @@
         <v>120</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M11" t="s" s="0">
         <v>120</v>
@@ -2843,7 +2923,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>120</v>
@@ -2864,7 +2944,7 @@
         <v>120</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M12" t="s" s="0">
         <v>120</v>
@@ -2905,10 +2985,10 @@
         <v>120</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M13" t="s" s="0">
         <v>120</v>
@@ -2943,16 +3023,16 @@
         <v>42</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s" s="0">
         <v>120</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M14" t="s" s="0">
         <v>120</v>
@@ -2996,7 +3076,7 @@
         <v>120</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M15" t="s" s="0">
         <v>120</v>
@@ -3019,7 +3099,7 @@
         <v>39</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>120</v>
@@ -3040,7 +3120,7 @@
         <v>120</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="M16" t="s" s="0">
         <v>120</v>
@@ -3051,7 +3131,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>41</v>
@@ -3075,43 +3155,344 @@
         <v>42</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>120</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
+        <v>107</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N17" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N18" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N20" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N21" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N22" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N23" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="N24" t="s" s="0">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L18 M1:N1">
+  <conditionalFormatting sqref="L1:L25 M1:N1">
     <cfRule type="cellIs" priority="1" dxfId="0" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L18 M1:N1">
+  <conditionalFormatting sqref="L1:L25 M1:N1">
     <cfRule type="cellIs" priority="2" dxfId="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L18 M1:N1">
+  <conditionalFormatting sqref="L1:L25 M1:N1">
     <cfRule type="cellIs" priority="3" dxfId="4" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
